--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/78_Van_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/78_Van_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4713822E-EC06-47FF-9211-C4B154B197BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DB94FE-33A9-4E55-BD32-49DBEF66BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{0B7F190B-C5DA-421E-BF52-D24ADAC3243D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{4E0FAAEB-9032-4443-8AD1-D780B5336B10}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -1010,14 +1010,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EB1E1817-9D34-47DD-81C7-CFF9568B58E3}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{42C0A6FD-A5C4-4EDA-B55A-64AC927E60A2}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{E01FFE88-BDDE-4772-97E2-2E2A8062BCE3}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{A19D91D0-1A0A-42C2-9FE2-6397B057D139}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6DC1B296-EEFD-4467-A261-8BB2B67C74C6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D7EC4E6C-C296-47EF-A0DB-5215772BE4BB}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{22663B82-47FD-4B0F-AE1C-399F176DC85A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{92D79D6F-82B4-4B04-83FA-7DC792FAF3D8}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C97B2636-3490-4D77-8CF1-6613AFD64F9B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4F667B2D-B59D-4A0C-8D83-40D8F39095D4}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{07C48B01-3CA3-4CDB-A835-796968D92A58}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{28A58B46-769B-48BA-B563-BD5EDFA8A32E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{89AA30F1-F96D-473D-AEB3-9AC5F62ABD53}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{140DE28D-5051-40D6-8710-3B859DF983E9}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{B98CA52E-DCCE-49D9-9FAD-2C0251D4EDF7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E8CD526C-F523-4009-867E-B1DED990CF04}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1387,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C47524C-6BB1-4D3D-8766-7D3F25B03E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C450838-0548-4417-8EC1-F443F18799D0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2664,18 +2664,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A035BC3-C2F3-4A3B-BF1F-94765F3D2410}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47E81FD9-85C7-4D1F-A6D6-70538C8003F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EEC24E37-FD87-48E1-BA83-BBEA99C97F27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9EFC2A4-50A7-4116-B418-64D1FE5E85B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8614E9E-8895-40A7-8A43-9FA88E7B8E6A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F0CD1949-3416-4642-973C-EF098CFBFFFB}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{81514049-C576-4AFF-B323-9C9110AE8D5D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0E31E36-E7F0-4D58-82C4-F8623EA1626F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80081041-37AA-4BE7-ADD3-40C72CEEFDE8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5006EC61-532D-49A4-8D04-125D9560A15B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE1A3336-C34A-4EC4-ABEA-6B1085F69AA5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2456596-197E-4C58-B359-BC4365018AE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A92E1F64-2015-43A5-82B3-A272B655E683}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1F95722-A3C0-401A-852F-44FD3553E0A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{890E31B1-44A7-44A8-A010-3F5CF6C7B636}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5FAA22D3-0B27-48FF-9BE8-B78F93D61104}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B692799-81C4-410C-85FD-FCBF5B848FE0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E3A9F4E6-ED29-404A-A5F0-AD411735D7A3}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{68071F4C-668E-420A-BB93-2FEE9BE1F4CE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59FB9854-B2D1-4919-84FB-11F28CD60B2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B69C4196-BE21-4858-844E-29DEB508E5C4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2AA1FEF2-2A03-4DB1-887C-C238EB51BD07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50A650B4-CE59-4474-BCF2-FD3850CB5584}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5434F0E-4799-43E3-80B4-40A10789D2E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2688,7 +2688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9E8F29-1EFA-4E95-BC94-1158EBFADACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BE0C10-D8E1-405C-9EBE-30F37625E4D4}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3927,18 +3927,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F892451-5F1C-448D-95FE-7AFE52C1A21C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7C422A3-F7C9-47FE-8D44-C9CC7D69A177}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0799481-C12A-438F-9C24-6F188B6C9ADB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFA880B7-D756-4510-AE44-FAD4AE88A244}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D203A486-7FC5-48E7-8444-E456C911D217}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F858E1F3-BA97-48E0-86E1-B8299198150D}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{498268BA-46D8-412C-8628-05B4FB9B6A0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{396171D8-1208-4365-A28C-F2B71DB81D6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84BCE6F6-CD39-45A5-BA07-8DD34C48D5DE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{45FD98E2-427F-42C0-9343-DE88DBDDF54E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2EB569F-7E9E-43D4-B7FC-0EA9E1913664}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A642A949-11FC-4FE5-B9DB-3B189B913B5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E0A2253-4CA2-4619-8FB9-89477F575C58}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86732052-EC75-469B-AD39-C5025F65C4FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{454F3223-3613-4BB4-B941-BBDCBE5A2B2A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5902C8B3-3EE0-4DB5-9581-823F124F0C87}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BEE30905-867C-4F7A-BD30-F379AA922A14}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{323A89A2-B160-4B1C-A714-E3DF558A74DB}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{9E682D6E-2510-4419-9257-5BFF694967FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05190AC5-1F99-4F29-BFD8-AD60D6882D27}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A622274A-4903-45A4-B314-69257BF61F74}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F5EB5E3C-71D6-44C7-87D3-8650BFB46D85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C623F968-8E28-4025-943C-B74E3A6471C0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E6C5338-F60A-4B77-818B-0F51EFBF7F54}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3951,7 +3951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F4467C-6C1F-4438-8206-EB4424FA4969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A02881-436D-4A3B-9078-F038EC570A90}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5186,18 +5186,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7992CE24-79A4-4B75-93AA-C886B4C401DE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E57EF89E-2488-469E-82A1-001566EC1B39}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{38206360-A58F-4172-90EB-753E0969F7C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C84F12B-7C10-4809-981B-4C9D64467213}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAF47B87-968D-4027-89F5-5C4D20A31533}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F11EFE6B-4EFE-4F41-96B3-6E36D469402B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A253088E-06AD-4E0D-B28B-C16AB3FBF456}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{359B804A-7187-4CA3-A97F-8911ECEBD357}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1CF5FAD-1395-40D9-B40B-730AD8A72710}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2B887CD3-1E75-4ED9-8457-4CA0CAAECF36}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4964F4D9-8BF7-4A03-995D-5CF389BC4D0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCB5F0B4-187D-41B3-B489-486E6DC1B6E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF751F19-BC2E-414E-873D-516891D03B55}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68B4A0B0-E0FB-4F5D-A53E-1FF65EEA23B2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13D4FC57-9E8A-42AF-BF4B-ECCA9D608CED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6710F47D-E0E0-41A5-BAA7-60B84AE299E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A1F2E3D-0AA1-4AA9-9F1A-83ABC23C1DA3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E474C253-6970-4206-B30E-4515196405F8}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BC57019B-AAD6-4421-899F-44D479432DD0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92C0D401-6FF7-47DE-832D-3181377E06C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B03BA45D-C38B-468A-93E6-F475B42C5325}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A6F1560-24C5-400E-AC5A-EC991EDC9500}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A19617C-C4E8-4D67-8663-F311B131C7AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45243480-7893-4531-A972-0F02940FA7EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5210,7 +5210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAA93AB-618B-4369-9449-8FFEB6631F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B13E47-405E-4C24-B26A-9535F17AACA7}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6437,18 +6437,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3A10748-65F0-4CDB-B311-BE54F3C3C9B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44158FFA-6458-4BFD-83BE-C29FC6D55D80}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24A3B78C-8866-4D5E-9F18-65E0D3B3449A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DD23C62-8CAB-4366-9248-3B60130558A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79F0C26C-27CF-4279-9912-CD7EE80C9BBB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4CB2F656-A6D0-4D46-9520-1D56C8996FDD}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F4745CE9-0BF2-4BE5-B2C9-53EA134F6BD6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B28496A-12D3-4C8C-9CC7-7B3860BE344F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32BAFC8F-A744-40D9-9EB8-CF3F646EDF92}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{417A3436-6261-4227-9647-8D3F8E6145A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B932D195-F45D-4B7D-BE84-3BC34152C6B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54C80D57-E926-4602-920A-233586FFBFA4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9375DAE-59F1-4375-A76F-1968B642B924}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5761733D-E771-43F5-A8B6-F4487A8133A1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E213D862-9A61-40D8-8FF9-AF21B9AF11FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD4F1438-B82D-4B6A-909D-23CD71A15A91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{360269F6-12E3-4177-BD65-8B0319A0EC52}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C13061A-9808-4DCD-BE19-B84FCD9227E3}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8674B4AA-16C1-49E4-A00D-8AA70940A994}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBE31924-D7F7-410E-90A8-4C0C77660185}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C8E102B-5385-4E2F-9EDA-91FB0C7D5866}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8EF3E7E4-2230-43A4-811F-59B85636994F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D26F75E7-F3B7-4DEB-85F6-39F4FF31A011}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68F1BC46-F7CF-4510-A7DB-88CDB8C065EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6461,7 +6461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD7B3F-0469-4D68-B865-6AE91C85DB77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3406BDD-A6FF-4154-9523-79876EC0F501}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7738,18 +7738,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{465400D4-3607-46BA-9C09-060E1832C9CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EEE1C42C-3E34-4396-A17A-E5BF74DDCFFA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05D9051C-046C-4916-BAAB-4F0C95E86645}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD06A706-86B9-4B65-A0B2-D5B1606D05E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20462132-EA8B-4BA2-9906-C3B7A571B5F9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8242E4D5-B855-442B-B754-CFC596628957}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2F2C7724-9BE3-4E1C-B958-0CC9C0B48420}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16AABAE9-6698-4A4D-B80C-E42653CA6C56}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43349E0C-0EE6-4A45-8D26-55BCEB38FD6A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{16FE4682-522C-49D6-868E-E03D9D0DC128}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D9B5AF3-A643-44F5-A18C-43691730F1B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1F53CBF-779E-4FB0-AE8C-FA19D91B7F6E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21E9B2F2-9950-4F7D-8583-ECACEA1A965B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD5E8967-5514-4A03-961E-433D8A1EFF56}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{132DCFC8-09EC-4595-ACF6-F25E6BC9405A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC16AFD0-9597-4D46-A12C-64E7D096DD80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17F437CA-C566-4527-A51D-9B1B3D260107}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18DB8D72-3ED9-416D-A408-FF335F1C80C0}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{12BD0953-8135-4B65-B267-B63B695B425E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9A26F10-3F4B-4447-84DA-4377F6F242AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E818FBD8-F69A-4E54-BA59-BB2922890973}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1C76E8F2-D601-4CF5-898D-A7574615F1CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{357DFE68-0FB0-4069-A9E9-3388E4CD2B9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E523E37B-B177-4B13-8EE5-1E69EF8638D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7762,7 +7762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351BE79A-211A-4E5D-96BD-8F80606F607B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64282885-CED3-45BB-94D8-CE3CDCF27470}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9035,18 +9035,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A48CB27-FA09-42CB-8146-133823E5E868}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{734000EA-8E47-43A1-B811-7072F49006F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{722105A4-D334-4A32-BB44-A0486D9E7399}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA943ABD-1F01-4CD2-8D6F-8805DCAEADC9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1809EF3B-D11E-4B21-B232-A75369037B39}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DC919E4C-E5B2-40E2-9C81-76E13B2376AE}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{3E509EE1-ABE6-46F7-9EF1-A50681419A77}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69EAF214-5E20-4F05-AF97-F55AE011E754}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C06CE609-DD34-4E11-8449-506C1A1D7BF1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0E0E8B15-37DD-4191-9A0E-94CCC12CEED7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1C3FB0F-7008-484B-8406-B693C89D0193}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81C2595B-DD5F-4C10-9670-75E1AFF5D7C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{598A3ECD-50B0-4781-931B-32050549D816}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DE80A53-EA78-4E0A-BAB6-69978D951BAC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{982E1227-21CF-47B4-98C0-CEA3F579F9DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E4C020C-D60C-433B-922E-9287F6C0AEA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45BE03DA-7ACA-4400-A7EF-9924E2EE9B63}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{246B7BE3-2A9C-4614-B8E3-4E3C4B352B93}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{34B5F25F-6B46-4AFB-A8DA-43D17CC91C43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EE49402-FEE2-4E9F-86C3-6627FEA63399}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E1D9857-BC9E-4509-B3A3-8F1F337AF087}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{851A06E0-8ABE-4DBB-8D08-6E7AD2EFD8E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85E35E22-8110-442E-8C90-88B871556D4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86832685-E23B-4E5C-85E3-BD13347248E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9059,7 +9059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0C532E-B4B1-4AB4-AA55-D7CFADA6E614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D1C886-6E03-416F-9E63-D6DB548AF03E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10328,18 +10328,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69CB56F4-9661-4F26-8032-D54BDA88BF03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F5746F0-408A-4DFC-9B18-D0F6FEB7EBC5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17AF039F-4C0E-4138-8A81-89575EAC737D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4252884E-6CF0-4012-B631-B3A732033BFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA268725-5C70-4E28-A5FF-0CCAB790B048}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F035B877-C4BC-4419-9FBE-BC09C35FB7A4}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{95FEC6B5-35FA-4F0B-B518-3CD0AA42F8E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35A15221-D9D9-479C-83F9-0DF41C536736}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F92F816-79E2-4977-AD0F-1FB4789D2C67}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B9E146CF-474C-48E3-A079-C30BBAD3936C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD64F526-DE3D-458E-A09A-6C0DBFC20732}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB2FEBA7-E3F1-4424-8972-FD182703AA53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCB967E6-84D0-4214-87B1-2AE9C44B0E04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E63EBD81-9ACD-48E2-A382-30BA1CC9B655}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1156EA6-DF1A-4173-B4A5-F61C4D4E9F5B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F8B2BDE-FE3D-4098-8F35-87D12D6201E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6343C4DA-C540-4C54-9FD7-439492973194}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A3A2510D-04CF-40E1-9863-D1C431E51320}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{000D8AA7-0178-4F38-ADFA-31C487B42021}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53B45521-E6AC-4F5A-971A-6F5E2B080130}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C85386CB-CF3A-4EA6-B294-7BE85D6A348A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B69EB33D-EF93-43C6-A039-4B2FC3987A8C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58DF4A70-0D89-4591-947A-E96D30FF68F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46C72DC5-DB11-4599-A085-5360863CB3C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10352,7 +10352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC078FFA-8658-4AB9-87E1-31FE73DA14A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22416B9B-105B-49AF-B3F2-BD505657FD49}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11621,18 +11621,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8A5E246-1B6B-4568-B7E7-63E580DAE41E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7498749E-CBF3-4B8E-86A1-66E310FF3C6B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F808EEE4-0BF4-4EF5-B94D-E503C658E43D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69B61262-E6E4-4740-B9FB-3763B33EC08E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B043CC63-7608-4FBE-93DA-BADC6E2D719E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D0BE725-F719-4BA6-BC2B-74FA52000C40}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1FF46C6C-30B3-4483-AE01-0D55C8FCA777}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F64FB4F5-BFAE-4864-9F46-A435F4DDED5B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FFCFB8A-F732-4695-9F96-EC6636502A59}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E5ABF961-CC83-4016-91D0-7C6D69536478}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9A4FB57-564A-49C7-989F-D67B440D0FAE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8C776A4-D8F6-48D1-856F-EB385A4B1811}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3F23F16-366F-420F-ACAB-054D72F48FFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C743BA2-2AC4-4A11-9230-D4C85CC969D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B92C2A9-EC9E-4CE9-B72B-892F4306B2B2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{327FB11D-161D-4D53-A3A0-E3F50A61174D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C7223C8-C3D0-4E3D-AFB0-8895040B07F0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4A10B47E-E1A5-41F0-AEE2-30C6794FB96A}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{633CAD27-82D3-43F0-8800-46DD41976107}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D309C86-7F89-4A0B-8600-7889B373157D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA1BDE7D-60BE-48CD-8B51-12C8661FC3C5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A28DE78B-25EB-4872-B3F9-CD99E288DA07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{378C4AA1-5D70-40D7-8925-50283E74B09C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8856E211-536F-483E-940D-CE0083F402AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11645,7 +11645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A46A70-773F-4D19-A0E1-46D25297A2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A065EFFC-ACCA-4E6B-90F1-0BDE51BF3371}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12906,18 +12906,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBB4D017-C164-4FFE-B866-7954A3349333}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A913C04-2FDC-4FEA-A350-AF205B80F519}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{685D8BF9-03FF-4320-A0C8-630368608093}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{217D0796-ADB9-46E7-AD9A-CB7BC7B7186F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00D4623D-5906-4A78-B802-21301CF0DE7F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DD10FC54-F98B-425F-B898-A2F843B5F7C2}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C3ECEBC7-F5B8-453B-8F37-E092C770B233}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30B475A2-A9A4-4DFF-AAD7-B8A4A4BAC36F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5081DE4D-15C7-4A5B-B168-EFE198FD4D8C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4A372065-427A-46B8-86D4-D66861D83059}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D43BD336-D8C1-4F5F-B538-7329A73C8A36}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B272620-2B48-46A5-8021-E40B5A3DEED1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E7C92F0-D5AC-46D5-AAE0-0B7618D7E477}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92CDD881-B24D-4029-A24B-FBDCFAE88EF0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A82DB54-F2AE-4F84-B207-ACB0032B3101}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BCFC30F-78C7-443B-AAAB-C6BD7245628D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDB2092A-81D3-454D-83C3-7F448F6F168F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ACC2C94C-D483-4212-9414-FAC1DA5B87CF}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{760EAC8D-225B-4C93-8B2A-E9F0D6363AB9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{077832E8-5177-4901-AA2A-A4637BC8ADA8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4373C59-3125-47F4-A651-B531A1BFD42F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6FF5C77E-67A2-444A-AF38-11D0DC9AE59B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7004F633-27A1-4417-9A1B-A90273BDBAA0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05185B4F-ACAD-42FE-AB9F-B533DD1E9EA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12930,7 +12930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C298CE7-5733-4F12-B708-B4E1330EE3E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D3D7D-46E4-4950-892B-3929EF625501}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14169,18 +14169,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{066D945D-0C0E-49D9-8191-DCAD61956566}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3A07949-EDAF-4D7D-A7E6-E48D64A63538}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2829C53-9CEF-496D-8637-3A22ECBECEEA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E64D2C70-4968-4ADF-85C6-88B8FD202319}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{711BB8AC-FC28-4D56-A174-D7EB8F7F5848}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F1AB57FE-418C-4F27-B3E8-2CED0AF74CF3}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C8664316-32A1-41EB-9B17-86C623D79407}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32AD5EF0-1767-4F43-81AA-37116F56A6BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9592CC4-4274-425D-82E3-500E4067FF40}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CB2F6E0F-640E-4DA6-B84E-866FACBD8418}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{162F369D-8462-44CD-A6B6-9F54D3BD5A5D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A371D1E-3FA5-43AE-8E3E-440A6CDBF158}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AAC02B8-C7C5-40CA-A679-93A7409988CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F262DAA-BB86-443C-A8EA-21DC2E3F020B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A21DD124-9549-4455-BF64-990A391AB26A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FD6F348-9FE6-40CA-A99B-C2E7117CE865}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B5D2AE6-2F14-46BA-856D-98038E88DF64}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F7401559-1F22-48A3-B374-50C4735CF763}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{30014986-7FFA-4901-873F-3954E879D79D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFB698FC-C4AA-4FB5-9A84-F1C396DEA4D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84683B92-3986-4CC3-B7E4-A6E319C49FDA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B664EEE1-4FC0-4685-B5B6-061E25CAB41F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7803B738-6BF0-4C8D-93DF-CA8099E24142}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5AC9864-BF82-47AD-889A-2CFCEC326D06}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14193,7 +14193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FCBC49-0A12-469F-B449-86490C459721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9C57B9-2091-45B5-A523-D7BBC5436C57}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15432,18 +15432,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A7EA8E4-E0B1-4647-BDE9-17BF963430D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59DABB03-007E-4154-BC04-47D65A45006E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7D54CD5-7343-4CAC-8B6C-A2B5885282CD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF0CDA1E-052B-424A-ADD0-BA38B9AAA37F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59E9F6F9-4297-4D51-9359-054708C90C6E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94A2E883-07A6-4227-BDA3-47500624E19D}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C0946625-CBE8-4074-83C2-EB525367DE14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{403619D8-360E-4FD6-BC4E-3271B48083FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4EE503CD-ABE7-4D91-BCBF-58045CCE44D3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{42C60E07-3D74-4696-8324-CDF8AB2C3F53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31CB713D-997E-4C1D-8799-05AB08B0BCDD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D37DFDF-2D83-446F-88E1-F5C4A8D8B1EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB0EA67B-B1AF-4571-9AEF-CA240912F5C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18ED0DE2-6DB0-44A0-958F-4A2E5FF763F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C56E7622-E688-4F92-823E-9DE3B9B50E82}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40F7580E-C83A-4608-A141-38F3B912EB28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6842AE38-0A66-408F-8822-E3D18FF8C6E0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CD4908FF-0AE3-4B77-9853-8498E98861D3}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{DA02B515-EFFF-4121-8958-5C5CF6703D68}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8F79FC6-D0C6-440D-A390-BA69ACB914C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37241F62-4C0A-42BC-90B7-F9656886151A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2AE7A92C-128A-4F0D-A1D8-E14CE06387A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FC45385-F7F3-4519-BB71-9276529CE3D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B355299D-152C-4AEC-923D-2CF1A704D623}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15456,7 +15456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9536EA75-17B3-47A0-BA71-4BED62FE514A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8E7FF3-7945-46A5-B713-6CE3732D67EC}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16695,18 +16695,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A11EFD42-0127-492A-B0AE-18671A40C035}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E350CBB6-8352-45B5-A174-4710810F46AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA35B2B5-99C7-4117-9F36-709077D4A584}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C8F4670-0944-4520-AD02-0D28EBC80A52}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E46CA19-825A-44AE-B1E9-A0801E2B931C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DDC86333-CE91-4E13-891F-78040214831A}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4D4F2B0D-9B62-4734-8CFA-C7E788246041}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F161A341-A1BE-4C41-B345-ED70035E4C49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66ED1E9B-1ABA-4A68-A842-D48274664C42}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4FEFAD8-15B4-47BB-ADC1-7E14315B1A0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3AD0467-99C4-4176-93C6-3BEC94817048}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC347BB4-40F8-44EC-A6B1-C8DC86B3B8E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01C68018-2350-4D2B-94BB-677C4A41A5E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F324D1FC-C88E-40F4-BAEF-EFB4BF67BEDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A409F63E-FD1F-488F-9C97-B5A98959E5FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{67778BFE-18EA-4F0E-96F2-AABAC0D7DCA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E20BC328-46CB-4529-A38D-626628E3300A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{03A4C52F-3551-4610-B1FD-7BA5121FA910}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{82A362F0-5B94-4DCD-AB7A-9C5CEF82F9C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E736A2C-BBB4-4091-9008-08EAB0369B86}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5803006-5A06-44B2-8CD8-5A9DC5DF8E0B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EEE35491-85FF-49D2-B99D-FD945981F320}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85BBFDFA-1FBB-4037-B74A-BE049CACD125}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFC2180E-9DD7-46DD-ADDB-B6EC95E8332C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
